--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F010B008-6FEF-400C-ACAA-A05734474DE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="2556" yWindow="1656" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,39 +35,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>桂林电子科技大学花江校区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lanlifu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>llf1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wjl</t>
+    <t>lym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -89,28 +81,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -152,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,9 +177,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,6 +229,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,94 +422,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1234</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>18076757556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>18076757558</v>
+        <v>13712341234</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>